--- a/Data/Transitions/18911949Translation.xlsx
+++ b/Data/Transitions/18911949Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="828">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9723054057994821}</t>
+    <t>{5.0: 0.9723496875545073}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -91,19 +91,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020710491553906, 246.0: 0.01497582965958572, 681.0: 0.00798884218017833, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.020732328647176654, 246.0: 0.014966331567818519, 681.0: 0.007993075646799908, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -121,7 +121,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -133,37 +133,37 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892}</t>
+    <t>{73.0: 0.8429428942637804}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.04385213002977653}</t>
+    <t>{75.0: 1.0, 917.0: 0.044165655930525655}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,10 +175,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 14.0: 0.00027033054943072243, 492.0: 0.00261449808873439, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 14.0: 0.00027132074902629517, 492.0: 0.002614263529252245, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 1.0}</t>
@@ -187,13 +187,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.10406272321566451}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8959371160388855, 91.0: 0.03813849167117715}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.1034156444923224}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8965842063144022, 91.0: 0.038138650843432466}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.3186909432682987}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.3217218663429814}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -229,34 +229,34 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.005128927996402795, 86.0: -0.0022646779270950896}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{543.0: 0.3814859516448283, 86.0: 0.1685234797025494}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
   </si>
   <si>
-    <t>{141.0: 0.03294142789995719, 762.0: 0.00038959548299938025}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.6538205096993592, 762.0: 0.6758285413496921}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.6824977236609803, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9560112890544774}</t>
+    <t>{141.0: 0.03285401607860142, 762.0: 0.00038959548299938025}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6538796081275635, 762.0: 0.6758285413496921}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.6824606825091657, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9559939909401058}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -283,10 +283,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -298,16 +298,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.67979419939276}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.04943118981305118}</t>
+    <t>{171.0: 0.682656031006749}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.04700343385884175}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,58 +319,58 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4140339596940813, 410.0: 0.010166137119917876, 277.0: 7.057845927259817e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5422188141189332, 410.0: 0.014395686970100978, 277.0: 9.99421308738507e-05}</t>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.41499950355670423, 410.0: 0.01007542775090648, 277.0: 7.083620274894988e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5482699271655748, 410.0: 0.014277015024410008, 277.0: 0.00010037584070094911}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.058624217874188374, 593.0: 0.04805087026806601, 778.0: 0.0005968011458582001}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.05859717183288125, 593.0: 0.047934463496061015, 778.0: 0.0005811250581125058}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.13231055588468052}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.13231877482233922}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -379,13 +379,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -394,10 +394,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{226.0: 0.6878675176141654}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -439,10 +439,13 @@
     <t>{595.0: 0.2768752160387141}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -451,7 +454,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -460,13 +463,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -499,22 +502,22 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0011233736389031051}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.17626442298656703}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{263.0: 1.0, 595.0: 0.0011355634645057963}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.17737532539717435}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -523,13 +526,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6445817789318075, 180.0: 0.01290222929264584}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6444331106212848, 180.0: 0.021152330356122347}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -538,10 +541,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -550,25 +553,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: 0.0028085336875687305, 917.0: 7.067469545271624e-05}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.1776004475142387}</t>
+    <t>{285.0: 1.0, 311.0: 0.002808088293838692, 917.0: 7.067469545271624e-05}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.18034251035223528}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -580,10 +583,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.06631936431783429}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.4580060505008871, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.06593118047976738}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.45532522645545087, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -595,40 +598,40 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.0009680310073963151}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0009638655596774717}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9739324133876401, 917.0: 0.024508296629080738}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2425212917260702, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.973777961478331, 917.0: 0.024508296629080738}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2425212917260702, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -637,31 +640,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.6813090567317013}</t>
+    <t>{98.0: 0.6782781336570187}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9990891610160915, 897.0: 0.01703964399726471}</t>
+    <t>{400.0: 0.9990891610160915, 897.0: 0.016854635895957648}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 476.0: 0.014918474591968642, 595.0: 0.0010174094213087344, 141.0: 0.0010289904150131558, 762.0: 0.0010636269143054645}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6507336738849347, 782.0: 0.044733262807919, 930.0: 0.09603434816167061}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29179797477582636}</t>
+    <t>{402.0: 0.9989634083134653, 476.0: 0.014890400101380591, 595.0: 0.0010093477355885693, 141.0: 0.001029083424815177, 762.0: 0.0010636269143054645}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6480579379036332, 782.0: 0.044733262807919, 930.0: 0.09529245920638413}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.29439526531131543}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -670,13 +670,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -685,7 +685,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -694,28 +694,28 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647, 212.0: 0.0008100445524503848, 681.0: 0.00010588615025138442}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309, 212.0: 0.0008067769261799112, 681.0: 0.00010546532827385459}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.995369543941235}</t>
@@ -724,19 +724,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -754,34 +754,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.056396094506158886}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.05594944844679226}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -799,25 +799,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.003849685838569357, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.003837937680693864, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19667349404315676, 180.0: 0.003936702213543456}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.196161521917118, 180.0: 0.0064386407935346215}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18598019855596482, 298.0: 0.00019010513430182239, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{534.0: 0.17503098432337108, 298.0: 0.00019241673586831533, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
+    <t>{507.0: 0.7976368788574122}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -868,13 +868,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44172514845365357}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
+    <t>{534.0: 0.46654379136126534}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -883,7 +883,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
@@ -892,7 +892,7 @@
     <t>{542.0: 0.7394957983193278}</t>
   </si>
   <si>
-    <t>{543.0: 0.6067210535157433}</t>
+    <t>{543.0: 0.6068619892475952}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -910,7 +910,7 @@
     <t>{561.0: 0.9775441949354993, 979.0: 0.001452643811737362}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -943,10 +943,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6171109798700464}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7086945288911954, 144.0: 0.024667481077092348, 303.0: 0.08541659767396019}</t>
+    <t>{580.0: 0.6162362878109587}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7088793209528648, 144.0: 0.024689258787754288, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -958,7 +958,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -979,22 +979,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.702206136868215, 686.0: 0.00515177483979713, 171.0: 0.003929446239264509}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6538045095362747, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9849925851985094}</t>
+    <t>{593.0: 0.702523634351758, 686.0: 0.005100072579781049, 171.0: 0.003945988618536121}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6542051359187661, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.984703285845052}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1009,13 +1009,13 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1033,16 +1033,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1051,10 +1051,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.00853814569167461, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008402432138969577, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1066,7 +1066,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.48188504494688095, 617.0: 0.09160405235371184}</t>
@@ -1090,7 +1090,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 0.8633610900832702}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1114,13 +1114,13 @@
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.8595947157848897}</t>
+    <t>{681.0: 0.859582684202587}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1129,10 +1129,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5188192558492247}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.047630701016118486, 174.0: 0.006582278481012658}</t>
+    <t>{686.0: 0.5191522157073675}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04492051246261242, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1144,25 +1144,25 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.47222139305615607, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10341719306019138, 857.0: 0.0963760281700746}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.47388238887602785, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10467470431236355, 857.0: 0.096442915220193}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1171,31 +1171,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.7743490239264605, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.7743475758866464, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1204,19 +1204,19 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
@@ -1231,7 +1231,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.01078339685864043, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.01082528839563314, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1240,7 +1240,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1261,13 +1261,13 @@
     <t>{759.0: 0.9941960447119519}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.0825394463828128, 762.0: 0.08531777884783316}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.08254690707190668, 762.0: 0.08531777884783316}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1282,16 +1282,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005296867481815251}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005288803610238408}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04317485636579488}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04317547486524815}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1303,16 +1303,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01740033043861241, 184.0: 0.0020208824520040417, 593.0: 0.0009677776021886674}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.017201854323422337, 184.0: 0.0020373514431239388, 593.0: 0.0009684790495434398}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1324,37 +1324,37 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0678019663035204, 180.0: 0.0013571536526986046}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.06831393842955914, 180.0: 0.002242279252530558}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9726485174093751, 486.0: 0.8429827244967432, 604.0: 0.406643068799627, 980.0: 0.01770212765957447}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9719706112379355, 486.0: 0.8407936948063115, 604.0: 0.40822465293820404, 980.0: 0.01770212765957447}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1381,37 +1381,37 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532, 634.0: 0.8040555944472704}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552, 634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.011648711492656144}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.011652059107576513}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1420,13 +1420,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1435,10 +1435,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.7855343805393834, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.22565097607353943}</t>
+    <t>{887.0: 0.784559191681481, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.22565242411335357}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1453,28 +1453,28 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025011973259636902, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.024959772235402113, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.41649529506959976}</t>
+    <t>{788.0: 0.5280298321939093}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4137347020225024}</t>
   </si>
   <si>
     <t>{542.0: 0.2605042016806723}</t>
@@ -1483,31 +1483,31 @@
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.9747840298855942, 110.0: 0.13486736413149955}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.23926214182338407, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7979505825057535}</t>
+    <t>{914.0: 0.9747840298855942, 110.0: 0.13492050877594353}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2366124934523391, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7976370566050043}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182, 297.0: 0.0009905894006934125}</t>
+    <t>{298.0: 0.2231833910034602, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.913783438500914}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9149179109469824}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1534,40 +1534,40 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.1351555863735242, 206.0: 0.1472611464968153}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.13143894210007095, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1576,16 +1576,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1597,13 +1597,13 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.18405465131412485, 729.0: 0.0819756762272764}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1840572879807126, 729.0: 0.08197685056612072}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807087}</t>
@@ -1624,7 +1624,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123919, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519685, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919351812436297, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1639,10 +1639,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8414566816004261, 90.0: 0.06075945647977147, 246.0: 0.05617682737802906, 681.0: 0.024202783198348638, 741.0: 0.00646706998038922, 789.0: 0.010937181363035668}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8414566816004259, 90.0: 0.06075945647977147, 246.0: 0.05617608270568474, 681.0: 0.024202783198348638, 741.0: 0.0064670699803892175, 789.0: 0.010937926035379988}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1657,19 +1657,19 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816089}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100289, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.8878903617164684, 917.0: 0.11210963828353182}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613507, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
-  </si>
-  <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.001462926550820381}</t>
+  </si>
+  <si>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044905, 165.0: 0.00047624670312689497, 433.0: 0.00010498729238260625}</t>
@@ -1693,25 +1693,25 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502989, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.7783443228422289, 110.0: 0.22165567715777135}</t>
+    <t>{543.0: 0.6707439927095041, 86.0: 0.3292560072904959}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511279, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777135}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.999179123078494, 762.0: 0.0008208769215062111}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009006, 762.0: 0.05790113999909881}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273635}</t>
+    <t>{141.0: 0.9991803268402232, 762.0: 0.0008196731597768281}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943128, 762.0: 0.05781623180568697}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1729,13 +1729,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659923, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9867533423279772, 914.0: 0.013246657672022568}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589453, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1744,10 +1744,10 @@
     <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9551925469933331, 404.0: 0.0061476591922338415, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.48078828492954623}</t>
+    <t>{173.0: 0.9551990922786057, 404.0: 0.006141113906961301, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.47865060642875795}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
@@ -1759,19 +1759,19 @@
     <t>{178.0: 0.9924042536179741, 14.0: 0.007595746382026063}</t>
   </si>
   <si>
-    <t>{179.0: 0.5428960109589418, 180.0: 0.44676854643963, 410.0: 0.010246425442575776, 277.0: 8.901715885237608e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291381, 410.0: 0.025304057170381308, 277.0: 0.00021983230048070306}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477968, 277.0: 0.0019306801921326875, 180.0: 7.261936007094297e-05}</t>
+    <t>{179.0: 0.5438355769225947, 180.0: 0.44578667419459694, 410.0: 0.010220365869510067, 277.0: 0.0001573830132980616}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453892, 410.0: 0.025304057170381308, 277.0: 0.00038965618422933594}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.001938217450661064, 180.0: 7.290286165408993e-05}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.16743580614272274, 593.0: 0.21101587657348267, 778.0: 0.001684636118598383}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.167559537003047, 593.0: 0.2111609860357187, 778.0: 0.001698369565217391}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685753}</t>
@@ -1780,13 +1780,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639669, 688.0: 0.0019142983360329847}</t>
@@ -1807,16 +1807,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.2186245622734175}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.0027640346914105107, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648749, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1825,10 +1825,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9996664752704241, 297.0: 0.00018045618356780216, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9996683166600521, 297.0: 0.0001786147939395593, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047623}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427764, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1837,7 +1837,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1858,19 +1858,19 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740357, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740366, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.711300035423308}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862113, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233089}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432052, 203.0: 0.15722996515679444}</t>
@@ -1882,7 +1882,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658954}</t>
   </si>
   <si>
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102326}</t>
@@ -1906,16 +1906,16 @@
     <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951959}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938826, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -1924,10 +1924,10 @@
     <t>{142.0: 0.3165679387265435, 909.0: 0.6834320612734565}</t>
   </si>
   <si>
-    <t>{309.0: 0.8858654923525082, 204.0: 0.040985444079406186, 426.0: 0.0731432659158121, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.8880984604071781, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823576, 917.0: 0.018264222417641886}</t>
@@ -1936,34 +1936,34 @@
     <t>{226.0: 0.9416873449131513, 5.0: 0.05303970223325062, 759.0: 0.005272952853598015}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452716, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667585, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9681191395477113, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9876183457230786, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647472, 141.0: 0.001877438939818455, 762.0: 0.0001153868872042623}</t>
+    <t>{402.0: 0.9876183457230786, 476.0: 0.00878804806046156, 595.0: 0.0016007803894371258, 141.0: 0.0018776081470592133, 762.0: 0.00011521767996350535}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052389, 782.0: 0.024509507908537884, 930.0: 0.19083093378622312}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{404.0: 0.784610271386408, 782.0: 0.024531876508247667, 930.0: 0.19085785210534428}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1975,22 +1975,22 @@
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.12228716197857423, 180.0: 0.004599630474255935}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.122460455075379, 180.0: 0.004606148609080106}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833815e-05, 681.0: 8.5981723324993e-05}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 7.851901692833814e-05, 681.0: 8.598172332499296e-05}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.04756292440600669, 434.0: 0.0003999430514455908}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.000399325219749228}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1999,7 +1999,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594209, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2014,46 +2014,46 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.011363636363636367}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862068}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352779, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977857, 942.0: 0.02214022140221402}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869783, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555466, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066559, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9814388529800157, 97.0: 0.002007871515969779, 696.0: 0.0004939796423712821, 85.0: 0.0005274745625237669, 178.0: 0.015413845523680162, 14.0: 0.0001179757754390602}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277217, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{492.0: 0.981438838880112, 97.0: 0.002007871515969779, 696.0: 0.0004939937422754595, 85.0: 0.0005274745625237669, 178.0: 0.015413845523680162, 14.0: 0.0001179757754390602}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -2065,16 +2065,16 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434111, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9988226983753237, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
+    <t>{277.0: 0.9637501241434095, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9988226983753237, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.3887955182072828, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -2086,10 +2086,10 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.006547732017460619}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124719, 837.0: 0.1817766821875285}</t>
+    <t>{535.0: 0.9934522679825392, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{173.0: 0.16679169792448115, 185.0: 0.1665416354088522, 404.0: 0.1665416354088522, 930.0: 0.5001250312578145}</t>
@@ -2113,34 +2113,34 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.8847625759895477, 565.0: 0.11523742401045246}</t>
+    <t>{564.0: 0.8869264658882778, 565.0: 0.11307353411172198}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654981, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654984, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9916614024005049, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005052, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588212, 402.0: 0.0008894395353984783, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334677, 402.0: 0.0008894395353984776, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2152,10 +2152,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839297, 837.0: 0.16861961302107834, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7596809969694167, 837.0: 0.1686767999293084, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -2176,7 +2176,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230431, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230431, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2185,10 +2185,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9870244830639151, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914439, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
@@ -2203,9 +2203,6 @@
     <t>{629.0: 0.20385830114630685, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{629.0: 1.0}</t>
   </si>
   <si>
@@ -2227,7 +2224,7 @@
     <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398522, 751.0: 0.2927604234771076}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2242,13 +2239,13 @@
     <t>{692.0: 0.9612552033301314, 110.0: 0.038744796669868714}</t>
   </si>
   <si>
-    <t>{86.0: 0.9518932703057186, 165.0: 0.03941729422594258, 433.0: 0.00868943546833878}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7213799011643242, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.23020500067043e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.951893270305719, 165.0: 0.03941729422594258, 433.0: 0.00868943546833878}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652256, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.22811965205799e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2257,7 +2254,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2269,34 +2266,34 @@
     <t>{730.0: 0.8502549837737597, 289.0: 0.14974501622624012}</t>
   </si>
   <si>
-    <t>{888.0: 0.8647615067933467, 73.0: 0.13523849320665327}</t>
+    <t>{888.0: 0.8647924498870715, 73.0: 0.13520755011292845}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851533, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042736, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.010014537231465032}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.20374408320078946, 595.0: 0.037144060913161095, 534.0: 0.19648093841642233}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113909, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.010014537231465032}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.20377048267549688, 595.0: 0.037117661438453804, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
   </si>
   <si>
     <t>{759.0: 1.0}</t>
@@ -2308,22 +2305,22 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909885}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571429, 410.0: 0.01365334274537486, 729.0: 0.0059895143974822785}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454608, 493.0: 0.011552824787393204, 108.0: 0.00020172983560795796, 144.0: 2.46693153835297e-06}</t>
+    <t>{141.0: 0.9421837681943137, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100494, 410.0: 0.013782554190914686, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393211, 108.0: 0.00020172983560795785, 144.0: 2.46693153835297e-06}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
   </si>
   <si>
-    <t>{778.0: 0.9784971368470254, 171.0: 0.019400059612387836, 184.0: 0.0004353696538871635, 593.0: 0.0016674338866991749}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018900952703514936, 184.0: 0.00042397939789741375, 593.0: 0.0016246295517813182}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2335,13 +2332,13 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434104, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853456}</t>
+    <t>{789.0: 0.9426975115915949, 246.0: 0.05730248840840526}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
@@ -2350,46 +2347,46 @@
     <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.8109380541579543, 486.0: 0.09203256577787093, 604.0: 0.09599729614781305, 980.0: 0.0010320839163615073}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.903297886125563, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.49132519157437143}</t>
+    <t>{835.0: 0.9900669157761303, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597996, 835.0: 0.007748404740200544}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.8109283230110331, 486.0: 0.09203256577787093, 604.0: 0.09600702729473418, 980.0: 0.0010320839163615073}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.903297886125563, 19.0: 0.08895370913423661, 423.0: 0.007748404740200548}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525656}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926489, 7.0: 0.07656967840735066}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796246, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269259e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323129, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410216, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796243, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269259e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310047, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085412, 298.0: 0.005269269691458644}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360667, 10.0: 0.027726001863932898}</t>
@@ -2401,7 +2398,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500587, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.999132407847768, 834.0: 0.0008675921522319134}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2422,7 +2419,7 @@
     <t>{914.0: 0.9042779872152106, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114128}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927463}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2431,7 +2428,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9939789262418463, 297.0: 0.006021073758153537}</t>
+    <t>{298.0: 0.9941104294478531, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 686.0: 0.17051894309291252}</t>
@@ -2440,16 +2437,16 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909883}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552468, 922.0: 0.16918576018906858}</t>
+    <t>{141.0: 0.9421837681943134, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142137, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.4603215449567749, 702.0: 0.5396784550432253}</t>
+    <t>{249.0: 0.46002285695495404, 702.0: 0.5399771430450461}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474489, 5.0: 0.025148279952550416}</t>
@@ -2458,25 +2455,25 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471717, 171.0: 0.003293328528655217, 85.0: 0.005089058524173028}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5155720569940877, 206.0: 0.48442794300591246}</t>
+    <t>{593.0: 0.9916176050004195, 171.0: 0.0032933364754076182, 85.0: 0.005089058524173028}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.5012622828305769, 206.0: 0.4987377171694231}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172719, 634.0: 0.08685562738272834}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.954137587238285, 615.0: 0.04586241276171485}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123955}</t>
+    <t>{943.0: 0.9149350649350652, 634.0: 0.08506493506493505}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.04623115577889449}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2485,7 +2482,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601318, 489.0: 0.04917254413384412, 935.0: 0.00041186400602402645}</t>
+    <t>{782.0: 0.9504155918601318, 489.0: 0.04917437168691644, 935.0: 0.0004100364529517133}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -2494,13 +2491,13 @@
     <t>{980.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112362}</t>
+    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112356}</t>
   </si>
 </sst>
 </file>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -4439,29 +4436,29 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>609</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -4472,106 +4469,106 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>610</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>613</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>614</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4604,95 +4601,95 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>615</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>619</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>619</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4703,51 +4700,51 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>620</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4758,40 +4755,40 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>623</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>584</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4802,106 +4799,106 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>624</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>626</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>627</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>628</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4912,40 +4909,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>630</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>631</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4956,161 +4953,161 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>632</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>633</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>634</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>635</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>636</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>640</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>641</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -6766,7 +6763,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6777,7 +6774,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6799,7 +6796,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6821,7 +6818,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6832,7 +6829,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6865,7 +6862,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6876,7 +6873,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6898,7 +6895,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6942,7 +6939,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6953,7 +6950,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6964,7 +6961,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6975,7 +6972,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6986,7 +6983,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7008,7 +7005,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7019,7 +7016,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7030,7 +7027,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7052,7 +7049,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7063,7 +7060,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7085,7 +7082,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7096,7 +7093,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7118,7 +7115,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7140,7 +7137,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7151,7 +7148,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7173,7 +7170,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7184,7 +7181,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7206,7 +7203,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7217,7 +7214,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7239,7 +7236,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7250,7 +7247,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7272,7 +7269,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7305,7 +7302,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7327,7 +7324,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7360,7 +7357,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7404,7 +7401,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7415,7 +7412,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7426,7 +7423,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7437,7 +7434,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7492,7 +7489,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7514,7 +7511,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7525,7 +7522,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7569,7 +7566,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7591,7 +7588,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7602,7 +7599,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7624,7 +7621,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7635,7 +7632,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7646,7 +7643,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7657,7 +7654,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7668,7 +7665,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7690,7 +7687,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7701,7 +7698,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7723,7 +7720,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7734,7 +7731,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7745,7 +7742,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7756,7 +7753,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7811,7 +7808,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7855,7 +7852,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7877,7 +7874,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7888,7 +7885,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7899,7 +7896,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7910,7 +7907,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7921,7 +7918,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7954,7 +7951,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7965,7 +7962,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7998,7 +7995,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8009,7 +8006,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8020,7 +8017,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8042,7 +8039,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8053,7 +8050,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8064,7 +8061,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8119,7 +8116,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8141,7 +8138,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8152,7 +8149,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8163,7 +8160,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8185,7 +8182,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8229,7 +8226,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8240,7 +8237,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8262,7 +8259,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8273,7 +8270,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8284,7 +8281,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8306,7 +8303,7 @@
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8317,7 +8314,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8350,7 +8347,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8383,7 +8380,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8394,7 +8391,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8416,7 +8413,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8427,7 +8424,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8438,7 +8435,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8460,7 +8457,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8471,7 +8468,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8493,7 +8490,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8504,7 +8501,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8526,7 +8523,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8537,7 +8534,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8548,7 +8545,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8570,7 +8567,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8581,7 +8578,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8603,7 +8600,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8614,7 +8611,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8625,7 +8622,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8636,7 +8633,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8647,7 +8644,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8658,7 +8655,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8669,7 +8666,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
